--- a/Edmundo/test-plan/TestPlanv1.0.xlsx
+++ b/Edmundo/test-plan/TestPlanv1.0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="80">
   <si>
     <t>endpoint</t>
   </si>
@@ -252,6 +252,16 @@
   </si>
   <si>
     <t>Miky</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Have a project created
+And verify project is present in response</t>
+  </si>
+  <si>
+    <t>Create a project</t>
   </si>
 </sst>
 </file>
@@ -315,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,6 +334,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1608,14 +1621,14 @@
   <dimension ref="A3:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1675,6 +1688,12 @@
       <c r="F5" t="s">
         <v>68</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1689,6 +1708,9 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1703,8 +1725,11 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -1714,8 +1739,14 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" t="s">
         <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,8 +1759,14 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" t="s">
         <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,6 +1782,9 @@
       <c r="F10" t="s">
         <v>74</v>
       </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1759,6 +1799,9 @@
       <c r="F11" t="s">
         <v>74</v>
       </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1773,6 +1816,9 @@
       <c r="F12" t="s">
         <v>74</v>
       </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1787,6 +1833,9 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1801,6 +1850,9 @@
       <c r="F14" t="s">
         <v>75</v>
       </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1815,6 +1867,9 @@
       <c r="F15" t="s">
         <v>75</v>
       </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1829,8 +1884,11 @@
       <c r="F16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -1843,8 +1901,11 @@
       <c r="F17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -1857,8 +1918,11 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1871,8 +1935,11 @@
       <c r="F19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>71</v>
       </c>
@@ -1885,8 +1952,11 @@
       <c r="F20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>71</v>
       </c>
@@ -1899,8 +1969,11 @@
       <c r="F21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>71</v>
       </c>
@@ -1912,6 +1985,9 @@
       </c>
       <c r="F22" t="s">
         <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
